--- a/medicine/Mort/Tombe_du_Dragon/Tombe_du_Dragon.xlsx
+++ b/medicine/Mort/Tombe_du_Dragon/Tombe_du_Dragon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tombe du Dragon (ou monument funéraire de Landry) est un monument funéraire remarquable du cimetière du Père-Lachaise érigé en l'honneur d'Antoine de Guillaume-Lagrange (1781-1807). Élevée quelques années après l'ouverture du cimetière, la stèle comporte les premières sculptures et épitaphes. Le monument est classé aux monuments historiques.
 </t>
@@ -511,10 +523,12 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le monument est situé dans la division 29 du cimetière du Père-Lachaise sur un bosquet qui est appelé « bosquet du Dragon[1] ». L’appellation est attestée dès 1836[2].
-À l'époque de la Restauration, le monument sert de lieu de rassemblement aux bonapartistes. Afin d'y mettre un terme, les autorités modifient la voirie et font construire autour[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le monument est situé dans la division 29 du cimetière du Père-Lachaise sur un bosquet qui est appelé « bosquet du Dragon ». L’appellation est attestée dès 1836.
+À l'époque de la Restauration, le monument sert de lieu de rassemblement aux bonapartistes. Afin d'y mettre un terme, les autorités modifient la voirie et font construire autour.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 16 décembre 1808, la mère d'Antoine de Guillaume-Lagrange est autorisée à construire, sur une concession perpétuelle, un cénotaphe en mémoire de son fils, sous-officier dans le 16e régiment de dragons, décédé le 4 février 1807 en Pologne lors de la campagne de Prusse et de Pologne.
-Le monument aurait été érigé en 1809[1]. Il s'agit de la première sculpture bâtie au cimetière du Père-Lachaise[1]. Le monument est cité dès 1817 dans l'ouvrage de C.-P. Arnaud dans son ouvrage sur les tombeaux des cimetières parisiens[3].
-La tombe du Dragon fait partie de la seconde série de protection aux monuments historiques dont bénéficiera le Père-Lachaise. La première série, datant de mars 1983, a permis l'inscription de l'ensemble des monuments funéraires construits avant 1900 dans la partie romantique du cimetière. L'œuvre de Godde est classée aux monuments historiques par un arrêté du 14 novembre 1983[4].
+Le monument aurait été érigé en 1809. Il s'agit de la première sculpture bâtie au cimetière du Père-Lachaise. Le monument est cité dès 1817 dans l'ouvrage de C.-P. Arnaud dans son ouvrage sur les tombeaux des cimetières parisiens.
+La tombe du Dragon fait partie de la seconde série de protection aux monuments historiques dont bénéficiera le Père-Lachaise. La première série, datant de mars 1983, a permis l'inscription de l'ensemble des monuments funéraires construits avant 1900 dans la partie romantique du cimetière. L'œuvre de Godde est classée aux monuments historiques par un arrêté du 14 novembre 1983.
 La tombe est entretenue par la mairie de Paris.
 </t>
         </is>
@@ -577,7 +593,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une face de la stèle est ornée à sa tête d'un médaillon représentant Guillaume-Lagrange. En dessous figure l'épitaphe suivante entourée d'un sabre et une carabine sculptés :
 « STA VIATOR, HEROEM VIDES.
@@ -591,7 +609,7 @@
 Ô toi si bon, si aimant, si sensible jamais je ne te pleurerai assez, ni autant que tu le méritais.
 Toi qui possédais toutes les qualités de l'âme et du cœur reçois l'hommage de ta malheureuse et inconsolable mère. La mort seule peut mettre un terme à sa douleur.
 Êtres bons et sensibles, plaignez son sort, il méritait bien de vivre, d'être réuni à sa tendre mère. Il ne demandait à Dieu pour récompense de tant de peines et de fatigues, que de la revoir, de la serrer encore une fois contre son cœur, avant que de finir l'un et l'autre leur carrière. »
-Le monument a été réalisé par Étienne-Hippolyte Godde[3] (1781-1869), l'architecte de la porte d'entrée principale et de la chapelle du cimetière.
+Le monument a été réalisé par Étienne-Hippolyte Godde (1781-1869), l'architecte de la porte d'entrée principale et de la chapelle du cimetière.
 </t>
         </is>
       </c>
